--- a/pdf_labels.xlsx
+++ b/pdf_labels.xlsx
@@ -1,78 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Data_Annotation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10AD0A-9F6F-469E-82F2-DF142F73ADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>PDF File</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>A graph similarity for deep learning.pdf</t>
-  </si>
-  <si>
-    <t>Failed to generate labels</t>
-  </si>
-  <si>
-    <t>Backpropagating Linearly Improves Transferability of Adversarial Examples.pdf</t>
-  </si>
-  <si>
-    <t>BAST_ Bayesian Additive Regression Spanning Trees for Complex Constrained Domain.pdf</t>
-  </si>
-  <si>
-    <t>No text found</t>
-  </si>
-  <si>
-    <t>Benchmarking Deep Inverse Models over time, and the Neural-Adjoint method.pdf</t>
-  </si>
-  <si>
-    <t>Beyond Value-Function Gaps_ Improved Instance-Dependent Regret Bounds for Episodic Reinforcement Learning.pdf</t>
-  </si>
-  <si>
-    <t>Bootstrapping Vision-Language Learning with Decoupled Language Pre-training.pdf</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,70 +420,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="104.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PDF File</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Labels</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A graph similarity for deep learning.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Failed to generate labels</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Backpropagating Linearly Improves Transferability of Adversarial Examples.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Failed to generate labels</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BAST_ Bayesian Additive Regression Spanning Trees for Complex Constrained Domain.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No text found</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Benchmarking Deep Inverse Models over time, and the Neural-Adjoint method.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No text found</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Beyond Value-Function Gaps_ Improved Instance-Dependent Regret Bounds for Episodic Reinforcement Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Failed to generate labels</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bootstrapping Vision-Language Learning with Decoupled Language Pre-training.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Failed to generate labels</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/pdf_labels.xlsx
+++ b/pdf_labels.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Data_Annotation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBAF7AF-46E6-482A-B4D4-DEE3CD3E21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>PDF File</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>A graph similarity for deep learning.pdf</t>
+  </si>
+  <si>
+    <t>Aggregate-Transform Alternative, Kernel Distance Method, Weisfeiler-Lehman Similarity</t>
+  </si>
+  <si>
+    <t>Backpropagating Linearly Improves Transferability of Adversarial Examples.pdf</t>
+  </si>
+  <si>
+    <t>Adversarial Transferability Enhancement</t>
+  </si>
+  <si>
+    <t>BAST_ Bayesian Additive Regression Spanning Trees for Complex Constrained Domain.pdf</t>
+  </si>
+  <si>
+    <t>Benchmarking Deep Inverse Models over time, and the Neural-Adjoint method.pdf</t>
+  </si>
+  <si>
+    <t>Neurogenesis in Adult, Stem Cell Therapy</t>
+  </si>
+  <si>
+    <t>Beyond Value-Function Gaps_ Improved Instance-Dependent Regret Bounds for Episodic Reinforcement Learning.pdf</t>
+  </si>
+  <si>
+    <t>Episodic Markov decision, Information Theoretic Bounds, Optimistic Algorithms</t>
+  </si>
+  <si>
+    <t>Bootstrapping Vision-Language Learning with Decoupled Language Pre-training.pdf</t>
+  </si>
+  <si>
+    <t>Large Language Model, Prompt Alignment Strategy, Separate Training Stage</t>
+  </si>
+  <si>
+    <t>Motor Neuron Degeneration, ALS Pathophysiology, TherapeCTIC Trial</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,101 +423,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="90.44140625" customWidth="1"/>
+    <col min="2" max="2" width="113.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PDF File</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Labels</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A graph similarity for deep learning.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Failed to generate labels</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Backpropagating Linearly Improves Transferability of Adversarial Examples.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Failed to generate labels</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BAST_ Bayesian Additive Regression Spanning Trees for Complex Constrained Domain.pdf</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No text found</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Benchmarking Deep Inverse Models over time, and the Neural-Adjoint method.pdf</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No text found</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Beyond Value-Function Gaps_ Improved Instance-Dependent Regret Bounds for Episodic Reinforcement Learning.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Failed to generate labels</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bootstrapping Vision-Language Learning with Decoupled Language Pre-training.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Failed to generate labels</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/pdf_labels.xlsx
+++ b/pdf_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Data_Annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBAF7AF-46E6-482A-B4D4-DEE3CD3E21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE6737-5EFD-4FE3-8FFC-7BBFECAEB820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t>PDF File</t>
   </si>
@@ -28,40 +28,1078 @@
     <t>Labels</t>
   </si>
   <si>
+    <t>A Causal View on Robustness  of Neural Networks.pdf</t>
+  </si>
+  <si>
+    <t>Robust Neural Networks, Causal Model Augmentation, Disentanglement Representation</t>
+  </si>
+  <si>
+    <t>A Closer Look at the Training Strategy for Modern Meta-Learning.pdf</t>
+  </si>
+  <si>
+    <t>Episodic Training Strategy, Generalization Bound Analysis, Stability Concerns</t>
+  </si>
+  <si>
+    <t>A Consolidated Cross-Validation Algorithm for Support Vector Machines via Data Reduction.pdf</t>
+  </si>
+  <si>
+    <t>Leave-one-out CV method, Data reduction strategy, Two-stage consolidated CV.</t>
+  </si>
+  <si>
     <t>A graph similarity for deep learning.pdf</t>
   </si>
   <si>
-    <t>Aggregate-Transform Alternative, Kernel Distance Method, Weisfeiler-Lehman Similarity</t>
+    <t>GNN Similarity, Kernel Distance Method, Transform-Sum-Cat Approach</t>
+  </si>
+  <si>
+    <t>A Scale-Invariant Sorting Criterion to Find a Causal Order in Additive Noise Models.pdf</t>
+  </si>
+  <si>
+    <t>Sustainable Energy Investment, Green Finance Models, Renewable Resource Economics</t>
+  </si>
+  <si>
+    <t>A Simple Solution for Offline Imitation from Observations and Examples with Possibly Incomplete Trajectories.pdf</t>
+  </si>
+  <si>
+    <t>Biocompatibility of Titanium, Osseointegration in Oral, Nanotechnology Enhancement Techniques</t>
+  </si>
+  <si>
+    <t>Achieving Equalized Odds by Resampling Sensitive Attributes.pdf</t>
+  </si>
+  <si>
+    <t>Equalized Odds Framework, Discrepancy Functional, Resampling Technique</t>
+  </si>
+  <si>
+    <t>Active Learning with Neural Networks_ Insights from Nonparametric Statistics.pdf</t>
+  </si>
+  <si>
+    <t>Nonparametric classification, Deep Active Learning, Label Complexity Guarantee</t>
+  </si>
+  <si>
+    <t>Active Ranking without Strong Stochastic Transitivity.pdf</t>
+  </si>
+  <si>
+    <t>Rank Recovery Problem, Noisy Comparisons Ranking, Non-Strong ST Assumption</t>
+  </si>
+  <si>
+    <t>Adaptive Interest for Emphatic Reinforcement Learning.pdf</t>
+  </si>
+  <si>
+    <t>Emphatic RL Interest, Adaptive Meta-gradient Learning, Dynamic State Emphasis</t>
+  </si>
+  <si>
+    <t>Adaptive Selective Sampling for Online Prediction with Experts.pdf</t>
+  </si>
+  <si>
+    <t>Adaptive Selective Sampling, Optimal Regret Guarantees, Perfect Expert Benefit</t>
+  </si>
+  <si>
+    <t>Adversarial Style Augmentation for Domain Generalized Urban-Scene Segmentation.pdf</t>
+  </si>
+  <si>
+    <t>AdvStyle Augmentation Methodology, Channel-wise Features Analysis, Domain Generalization Application</t>
+  </si>
+  <si>
+    <t>Adversarially Robust Streaming Algorithms via Differential Privacy.pdf</t>
+  </si>
+  <si>
+    <t>Streaming Algorithms, Adversarial Robustness, Differential Privacy</t>
+  </si>
+  <si>
+    <t>Algorithmic recourse under imperfect causal knowledge_ a probabilistic approach.pdf</t>
+  </si>
+  <si>
+    <t>Counterfactual explanations limitations, causal relationships importance, algorithmic recourse challenges</t>
+  </si>
+  <si>
+    <t>Ambient Diffusion_ Learning Clean Distributions from Corrupted Data.pdf</t>
+  </si>
+  <si>
+    <t>Scientific Diffusion Framework, Generative Model Training, Measurement Distortion Learning</t>
+  </si>
+  <si>
+    <t>An Unsupervised Information-Theoretic Perceptual Quality Metric.pdf</t>
+  </si>
+  <si>
+    <t>Video Frame Analysis, Human Visual Model, Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>Analytical Study of Momentum-Based Acceleration Methods in Paradigmatic High-Dimensional Non-Convex Problems.pdf</t>
+  </si>
+  <si>
+    <t>Matrix Model, Heavy Equations, Dynamical Mean Field</t>
+  </si>
+  <si>
+    <t>ANTN_ Bridging Autoregressive Neural Networks and Tensor Networks for Quantum Many-Body Simulation.pdf</t>
+  </si>
+  <si>
+    <t>Quantum Simulation Neural, relevant to the, and adhere to</t>
+  </si>
+  <si>
+    <t>Approximating the Permanent with Deep Rejection Sampling.pdf</t>
+  </si>
+  <si>
+    <t>Deep Rejection Sampling, Subproblem Bounds Analysis, Running Time Estimation</t>
+  </si>
+  <si>
+    <t>Asynchronous SGD Beats Minibatch SGD Under Arbitrary Delays.pdf</t>
+  </si>
+  <si>
+    <t>Virtual Iterates Recursion, Asynchronous SGD Outperformance, State-Of-The-Art Guarantees</t>
+  </si>
+  <si>
+    <t>Attentive Transfer Entropy to Exploit Transient Emergence of Coupling Effect.pdf</t>
+  </si>
+  <si>
+    <t>Coupled Neural Network, Attentive Mechanism for, Dissipative Dynamics Understanding.</t>
+  </si>
+  <si>
+    <t>AugMax_ Adversarial Composition of Random Augmentations for Robust Training.pdf</t>
+  </si>
+  <si>
+    <t>Diverse Data Generation, Adversarial Sample Creation, Unified Framework Approach</t>
+  </si>
+  <si>
+    <t>AutoManual_ Constructing Instruction Manuals by LLM Agents via Interactive Environmental Learning.pdf</t>
+  </si>
+  <si>
+    <t>Task Learning, Adaptive Interaction, Autonomous Rule Optimization</t>
   </si>
   <si>
     <t>Backpropagating Linearly Improves Transferability of Adversarial Examples.pdf</t>
   </si>
   <si>
-    <t>Adversarial Transferability Enhancement</t>
+    <t>Adversarial Transferability, Linear Backpropagation Method, Gradient Exploitation Attacks</t>
+  </si>
+  <si>
+    <t>Backward-Compatible Prediction Updates_ A Probabilistic Approach.pdf</t>
+  </si>
+  <si>
+    <t>Prediction Updates, State-of-the-Art Models, Limited Budget</t>
   </si>
   <si>
     <t>BAST_ Bayesian Additive Regression Spanning Trees for Complex Constrained Domain.pdf</t>
   </si>
   <si>
+    <t>Climate Change Mitigation, Carbon Dioxide Emissions, Sustainable Urban Planning</t>
+  </si>
+  <si>
+    <t>Batchnorm Allows Unsupervised Radial Attacks.pdf</t>
+  </si>
+  <si>
+    <t>Adversarial Examples, Intermediate Losses, Batch Norm Geometry</t>
+  </si>
+  <si>
+    <t>Belief Projection-Based Reinforcement Learning for Environments with Delayed Feedback.pdf</t>
+  </si>
+  <si>
+    <t>Delayed Feedback Environment, Actor-Critic Algorithm, State Space Explosion</t>
+  </si>
+  <si>
+    <t>Bench2Drive_ Towards Multi-Ability Benchmarking of Closed-Loop End-To-End Autonomous Driving.pdf</t>
+  </si>
+  <si>
+    <t>End-to-end benchmarking, Multi-capability testing, Closed-loop simulation</t>
+  </si>
+  <si>
     <t>Benchmarking Deep Inverse Models over time, and the Neural-Adjoint method.pdf</t>
   </si>
   <si>
-    <t>Neurogenesis in Adult, Stem Cell Therapy</t>
+    <t>Informed Consent in, Patient Autonomy Ethics, Healthcare Decision Making</t>
   </si>
   <si>
     <t>Beyond Value-Function Gaps_ Improved Instance-Dependent Regret Bounds for Episodic Reinforcement Learning.pdf</t>
   </si>
   <si>
-    <t>Episodic Markov decision, Information Theoretic Bounds, Optimistic Algorithms</t>
+    <t>Gap Definitions, Optimistic Algorithms, Information Theoretic Bounds</t>
   </si>
   <si>
     <t>Bootstrapping Vision-Language Learning with Decoupled Language Pre-training.pdf</t>
   </si>
   <si>
-    <t>Large Language Model, Prompt Alignment Strategy, Separate Training Stage</t>
-  </si>
-  <si>
-    <t>Motor Neuron Degeneration, ALS Pathophysiology, TherapeCTIC Trial</t>
+    <t>Language Prompt Identification, Fixed LLM Use, Separate Training Stages</t>
+  </si>
+  <si>
+    <t>BubbleML_ A Multiphase Multiphysics Dataset and Benchmarks for Machine Learning.pdf</t>
+  </si>
+  <si>
+    <t>Boiling Scenarios Dataset, Physics Simulations Benchmark, Multiphase Flow Analysis</t>
+  </si>
+  <si>
+    <t>Cascaded Text Generation with Markov Transformers.pdf</t>
+  </si>
+  <si>
+    <t>Conditional Random Field, Markov Transformer Modification, Autoregressive Tradeoff Analysis</t>
+  </si>
+  <si>
+    <t>Causal Effect Identification in Uncertain Causal Networks.pdf</t>
+  </si>
+  <si>
+    <t>Causal Inference Algorithms, Probabilistic Model Uncertainty, Expert Belief Representation</t>
+  </si>
+  <si>
+    <t>CentripetalText_ An Efficient Text Instance Representation for Scene Text Detection.pdf</t>
+  </si>
+  <si>
+    <t>Scene Text Representation, Centripetal Shift Modeling, Kernel Fusion Technique</t>
+  </si>
+  <si>
+    <t>Chain of Preference Optimization_ Improving Chain-of-Thought Reasoning in LLMs.pdf</t>
+  </si>
+  <si>
+    <t>ToT method application, fine-tuned language modeling, reasoning path optimization</t>
+  </si>
+  <si>
+    <t>Characterizing Graph Datasets for Node Classification_ Homophily-Heterophily Dichotomy and Beyond.pdf</t>
+  </si>
+  <si>
+    <t>Homophily Measurement Flaws, Node Classification Challenges, Heterophilous Graph Study</t>
+  </si>
+  <si>
+    <t>CHIMLE_ Conditional Hierarchical IMLE for Multimodal Conditional Image Synthesis.pdf</t>
+  </si>
+  <si>
+    <t>GAN Alternative Method, Conditional Image Diversity, Implicit Likelihood Sampler</t>
+  </si>
+  <si>
+    <t>Collaborative Cognitive Diagnosis with Disentangled Representation Learning for Learner Modeling.pdf</t>
+  </si>
+  <si>
+    <t>Collaborative learning, Cognitive state assessment, Knowledge sharing</t>
+  </si>
+  <si>
+    <t>Community Detection Guarantees using Embeddings Learned by Node2Vec.pdf</t>
+  </si>
+  <si>
+    <t>Node Embedding Analysis, Community Detection Performance, Theoretical Insight [Note</t>
+  </si>
+  <si>
+    <t>Conditional Meta-Learning of Linear Representations.pdf</t>
+  </si>
+  <si>
+    <t>Meta-learning framework, Conditioning function learning, Task clustering analysis</t>
+  </si>
+  <si>
+    <t>Coresets for Regressions with Panel Data.pdf</t>
+  </si>
+  <si>
+    <t>Panel Data Coresets, Total Sensitivity Bound, Feldman-Langberg Framework</t>
+  </si>
+  <si>
+    <t>Coresets for Relational Data and The Applications.pdf</t>
+  </si>
+  <si>
+    <t>Machine Learning Algorithms, Big Data Processing, Algorithmic Bias Mitigation</t>
+  </si>
+  <si>
+    <t>Counterfactual Explanations Can Be Manipulated.pdf</t>
+  </si>
+  <si>
+    <t>Counterfactual Explanations Framework, Vulnerability Manipulation Analysis, Perturbation Effect Study</t>
+  </si>
+  <si>
+    <t>Cross-Episodic Curriculum for Transformer Agents.pdf</t>
+  </si>
+  <si>
+    <t>Transformer Learning, Multi-Task Reinforcement, Pattern Recognition Mechanism</t>
+  </si>
+  <si>
+    <t>Decentralized Gossip-Based Stochastic Bilevel Optimization over Communication Networks.pdf</t>
+  </si>
+  <si>
+    <t>Stochastic Bilevel Optimization, Decentralized Gossip Algorithms, Communication Networks Efficiency</t>
+  </si>
+  <si>
+    <t>Decompose, Analyze and Rethink_ Solving Intricate Problems with Human-like Reasoning Cycle.pdf</t>
+  </si>
+  <si>
+    <t>Problem Decomposition Framework, Rationale Updating Mechanism, Iterative Reasoning Tree</t>
+  </si>
+  <si>
+    <t>Deep Policy Gradient Methods Without Batch Updates, Target Networks, or Replay Buffers.pdf</t>
+  </si>
+  <si>
+    <t>Policy Gradient Failure, Incremental Learning Challenge, Replay Buffer Redundancy</t>
+  </si>
+  <si>
+    <t>Deep reconstruction of strange attractors from time series.pdf</t>
+  </si>
+  <si>
+    <t>Cognitive decline patterns, Alzheimer's Disease Impact, Neuropsychological Assessment Methodologies</t>
+  </si>
+  <si>
+    <t>Defending against Data-Free Model Extraction by  Distributionally Robust Defensive Training.pdf</t>
+  </si>
+  <si>
+    <t>Commercial model protection, DFME challenges, defensive training techniques.</t>
+  </si>
+  <si>
+    <t>Detecting Any Human-Object Interaction Relationship_ Universal HOI Detector with Spatial Prompt Learning on Foundation Models.pdf</t>
+  </si>
+  <si>
+    <t>UniHOI Detection, Foundation Model Integration, Language Model Utilization.</t>
+  </si>
+  <si>
+    <t>Deterministic Approximation for Submodular Maximization over a Matroid in Nearly Linear Time.pdf</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm Twin</t>
+  </si>
+  <si>
+    <t>Differentiable Modal Synthesis for Physical Modeling of Planar String Sound and Motion Simulation.pdf</t>
+  </si>
+  <si>
+    <t>Cognitive development in, Neural correlates of, Inclusive educational strategies</t>
+  </si>
+  <si>
+    <t>Diffused Task-Agnostic Milestone Planner.pdf</t>
+  </si>
+  <si>
+    <t>Long-term Planning Approach, Vision-Based Control System, Multi-Task Decision Framework</t>
+  </si>
+  <si>
+    <t>Diffusion Visual Counterfactual Explanations.pdf</t>
+  </si>
+  <si>
+    <t>Algorithm Efficiency in, Deep Learning Optimization, Bio-inspired Approaches to</t>
+  </si>
+  <si>
+    <t>DomainGallery_ Few-shot Domain-driven Image Generation by Attribute-centric Finetuning.pdf</t>
+  </si>
+  <si>
+    <t>Bone Density Reduction, Strontium Ranelate Use, Osteoporosis Treatment Study</t>
+  </si>
+  <si>
+    <t>DrivAerNet++_ A Large-Scale Multimodal Car Dataset with Computational Fluid Dynamics Simulations and Deep Learning Benchmarks.pdf</t>
+  </si>
+  <si>
+    <t>Cryptographic Protocol Evaluation, Multiagent Coordination Dynamics, Trust in Networked</t>
+  </si>
+  <si>
+    <t>DRIVE_ One-bit Distributed Mean Estimation.pdf</t>
+  </si>
+  <si>
+    <t>Dense Data Compression, Mean Estimation Efficiency, Federated Learning Advancement</t>
+  </si>
+  <si>
+    <t>Efficient Contextual Bandits with Continuous Actions.pdf</t>
+  </si>
+  <si>
+    <t>Contextual Bandits, Continuous Actions, Unknown Structure</t>
+  </si>
+  <si>
+    <t>Enhancing Chess Reinforcement Learning with Graph Representation.pdf</t>
+  </si>
+  <si>
+    <t>Chess Reinforcement Learning, Neural Network Adaptability, Generalized Game State</t>
+  </si>
+  <si>
+    <t>Equivariant Flow Matching with Hybrid Probability Transport for 3D Molecule Generation.pdf</t>
+  </si>
+  <si>
+    <t>Molecule Generation, Probability Flow Matching, Geometric Equivariance (Note:</t>
+  </si>
+  <si>
+    <t>ESSEN_ Improving Evolution State Estimation for Temporal Networks using Von Neumann Entropy.pdf</t>
+  </si>
+  <si>
+    <t>Von Neumann Entropy, Triadic Closure Theory, Complex Evolution States</t>
+  </si>
+  <si>
+    <t>Fair Wasserstein Coresets.pdf</t>
+  </si>
+  <si>
+    <t>Fair Wasserstein Coresets, Sampling Weights, Subgroup Bias Reduction</t>
+  </si>
+  <si>
+    <t>Fast and Flexible Temporal Point Processes with Triangular Maps.pdf</t>
+  </si>
+  <si>
+    <t>Event Modeling, Triangular Flow Normalization, Variational Inference</t>
+  </si>
+  <si>
+    <t>Fast Bayesian Coresets via Subsampling and Quasi-Newton Refinement.pdf</t>
+  </si>
+  <si>
+    <t>Bayesian Coresets Algorithm, Quasi-Newton Method Optimization, Subsampling Technique ✅</t>
+  </si>
+  <si>
+    <t>Fast Training of Neural Lumigraph Representations using Meta Learning.pdf</t>
+  </si>
+  <si>
+    <t>Health policy impact, Environmental health risk, Community engagement in</t>
+  </si>
+  <si>
+    <t>Fast Tucker Rank Reduction for Non-Negative Tensors Using Mean-Field Approximation.pdf</t>
+  </si>
+  <si>
+    <t>Quantum Information Processing, Quantum Optics Experiments, Nonlinear Photonic Materials</t>
+  </si>
+  <si>
+    <t>FAST_ a Fused and Accurate Shrinkage Tree for Heterogeneous Treatment Effects Estimation.pdf</t>
+  </si>
+  <si>
+    <t>Shrinkage Estimation, Trial and Observational, Fused Shrinkage Tree</t>
+  </si>
+  <si>
+    <t>Federated Submodel Optimization for Hot and Cold Data Features.pdf</t>
+  </si>
+  <si>
+    <t>Recommender Systems, NLP Scenarios, Federated Learning Challenges</t>
+  </si>
+  <si>
+    <t>FEDMEKI_ A Benchmark for Scaling Medical Foundation Models via Federated Knowledge Injection.pdf</t>
+  </si>
+  <si>
+    <t>Digital Communication Efficiency, User Privacy Concerns, Interoperability Challenges By</t>
+  </si>
+  <si>
+    <t>FINALLY_ fast and universal speech enhancement with studio-like quality.pdf</t>
+  </si>
+  <si>
+    <t>- GAN Speech</t>
+  </si>
+  <si>
+    <t>Finding Discriminative Filters for Specific Degradations in Blind Super-Resolution.pdf</t>
+  </si>
+  <si>
+    <t>Super-Resolution Networks, One-Branch Strategy, FAIG Methodology</t>
+  </si>
+  <si>
+    <t>Flows for simultaneous manifold learning and density estimation.pdf</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis in, Neural Network Architectures, Linguistic Feature Extraction</t>
+  </si>
+  <si>
+    <t>Fourier Sparse Leverage Scores and Approximate Kernel Learning.pdf</t>
+  </si>
+  <si>
+    <t>Fourier Sparse Leverage, Kernel Approximation Method, Random Fourier Features</t>
+  </si>
+  <si>
+    <t>From Canonical Correlation Analysis to Self-supervised Graph Neural Networks.pdf</t>
+  </si>
+  <si>
+    <t>Graph Representation Learning, Canonical Correlation Analysis, Self-supervised Models</t>
+  </si>
+  <si>
+    <t>Fully Sparse 3D Object Detection.pdf</t>
+  </si>
+  <si>
+    <t>Sparse Feature Extraction, LiDAR Perception Range, Object Detection Efficiency.</t>
+  </si>
+  <si>
+    <t>Generalised Bayesian Filtering via Sequential Monte Carlo.pdf</t>
+  </si>
+  <si>
+    <t>Loss Minimization, Bayesian Inference Methodology, Generalized Filtering Technique</t>
+  </si>
+  <si>
+    <t>Generating Training Data with Language Models_ Towards Zero-Shot Language Understanding.pdf</t>
+  </si>
+  <si>
+    <t>Zero-Shot Learning, Language Model Prompts, Class Conditioning Text</t>
+  </si>
+  <si>
+    <t>Geometric Order Learning for Rank Estimation.pdf</t>
+  </si>
+  <si>
+    <t>Embedding Space Construction, Geometric Constraints Implementation, k-NN Rank Estimation</t>
+  </si>
+  <si>
+    <t>Gigastep - One Billion Steps per Second Multi-agent Reinforcement Learning.pdf</t>
+  </si>
+  <si>
+    <t>Gigastep Environment, High Performance Reinforcement, Vectorized Multi-agent Dynamics</t>
+  </si>
+  <si>
+    <t>GITA_ Graph to Visual and Textual Integration for Vision-Language Graph Reasoning.pdf</t>
+  </si>
+  <si>
+    <t>Graph Visualization Techniques, Graph Language Models, Cross-Modal Integration Reasoning:</t>
+  </si>
+  <si>
+    <t>GTSinger_ A Global Multi-Technique Singing Corpus with Realistic Music Scores for All Singing Tasks.pdf</t>
+  </si>
+  <si>
+    <t>Social Media Behavior, Digital Identity Construct, Privacy Concern Impact</t>
+  </si>
+  <si>
+    <t>Habitat 2.0_ Training Home Assistants to Rearrange their Habitat.pdf</t>
+  </si>
+  <si>
+    <t>Classification accuracy, Feature selection techniques, Dimensionality reduction methods</t>
+  </si>
+  <si>
+    <t>Hard Shape-Constrained Kernel Machines.pdf</t>
+  </si>
+  <si>
+    <t>Affine Shape Constraints, Factorized Function Approximation, Out-of-sample Guarantees Following</t>
+  </si>
+  <si>
+    <t>How does PDE order affect the convergence of PINNs_.pdf</t>
+  </si>
+  <si>
+    <t>PDE order impact, Neural network gradient, ReLU activation effectiveness</t>
+  </si>
+  <si>
+    <t>How to Learn a Useful Critic_ Model-based Action-Gradient-Estimator Policy Optimization.pdf</t>
+  </si>
+  <si>
+    <t>Model Based Actor-Critic, Policy Gradient Learning, Backpropagation Dynamics</t>
+  </si>
+  <si>
+    <t>Hyperbolic Busemann Learning with Ideal Prototypes.pdf</t>
+  </si>
+  <si>
+    <t>Hyperbolic Space Learning, Ideal Prototype Positioning, Busemann Distance Computation</t>
+  </si>
+  <si>
+    <t>Hyperbolic VAE via Latent Gaussian Distributions.pdf</t>
+  </si>
+  <si>
+    <t>Hyperbolic space, Gaussian manifold VAE, density estimation task</t>
+  </si>
+  <si>
+    <t>IM-Loss_ Information Maximization Loss for Spiking Neural Networks.pdf</t>
+  </si>
+  <si>
+    <t>Spiking Neural Network, Information Maximization Loss, Energy Efficiency in</t>
+  </si>
+  <si>
+    <t>Improved Algorithms for Online Submodular Maximization via First-order Regret Bounds.pdf</t>
+  </si>
+  <si>
+    <t>Submodular Maximization, Online Algorithms, First-order Regrets</t>
+  </si>
+  <si>
+    <t>Improved Regret for Bandit Convex Optimization with Delayed Feedback.pdf</t>
+  </si>
+  <si>
+    <t>Delayed Bandit Optimization, Convex Loss Regime, Gradient Descent Comparison</t>
+  </si>
+  <si>
+    <t>Improving Local Identifiability in Probabilistic Box Embeddings.pdf</t>
+  </si>
+  <si>
+    <t>Geometric Embeddings, Transitive Asymmetric Relations, Containment Representation</t>
+  </si>
+  <si>
+    <t>Improving Sparse Decomposition of Language Model Activations with Gated Sparse Autoencoders.pdf</t>
+  </si>
+  <si>
+    <t>Gated Sparse Autoencoder, Unsupervised Feature Discovery, Bias Reduction in</t>
+  </si>
+  <si>
+    <t>Label Correction of Crowdsourced Noisy Annotations with an Instance-Dependent Noise Transition Model.pdf</t>
+  </si>
+  <si>
+    <t>Crowdsourced Noisy Annotations, Instance-Dependent Model, Crowdsourcing Quality Control</t>
+  </si>
+  <si>
+    <t>Large language models transition from integrating across position-yoked, exponential windows to structure-yoked, power-law windows.pdf</t>
+  </si>
+  <si>
+    <t>Machine Learning in, Genome analytics case, Bioinfomatics approach article.</t>
+  </si>
+  <si>
+    <t>Learning Composable Energy Surrogates for PDE Order Reduction.pdf</t>
+  </si>
+  <si>
+    <t>Gender Inequality in, Education Disparity Analysis, Socioeconomic Factors and</t>
+  </si>
+  <si>
+    <t>Learning from Teaching Regularization_ Generalizable Correlations Should be Easy to Imitate.pdf</t>
+  </si>
+  <si>
+    <t>Imitation Learning, Generalizability Regularization, Teaching-Learning Framework</t>
+  </si>
+  <si>
+    <t>Learning One Representation to Optimize All Rewards.pdf</t>
+  </si>
+  <si>
+    <t>Optimal Policy Learning, Unsupervised Representation Training, Temporal Difference Methods</t>
+  </si>
+  <si>
+    <t>Learning Place Cell Representations and Context-Dependent Remapping.pdf</t>
+  </si>
+  <si>
+    <t>Place Cell Activity, Environmental Cues Interaction, Contextual Remapping</t>
+  </si>
+  <si>
+    <t>Learning Space Partitions for Path Planning.pdf</t>
+  </si>
+  <si>
+    <t>Population-based methods, Reward-aware learning, Formal regret theory</t>
+  </si>
+  <si>
+    <t>Learning to Select Exogenous Events for Marked Temporal Point Process.pdf</t>
+  </si>
+  <si>
+    <t>Exogenous Event Identification, Temporal Point Process, Parameter Estimation Problem</t>
+  </si>
+  <si>
+    <t>Local Explanation of Dialogue Response Generation.pdf</t>
+  </si>
+  <si>
+    <t>Dialogue Response Generation, Local Explanation Method, Interactive Segment Modeling</t>
+  </si>
+  <si>
+    <t>Matrix factorisation and the interpretation of geodesic distance.pdf</t>
+  </si>
+  <si>
+    <t>Matrix Factorisation Approach, Nonlinear Dimension Reduction, Geodesic Distance Encoding</t>
+  </si>
+  <si>
+    <t>Meta-Learning Reliable Priors in the Function Space.pdf</t>
+  </si>
+  <si>
+    <t>Meta-learning framework F-PACOH, High epistemic uncer-, Sequential decision integration</t>
+  </si>
+  <si>
+    <t>MicroAdam_ Accurate Adaptive Optimization with Low Space Overhead and Provable Convergence.pdf</t>
+  </si>
+  <si>
+    <t>Gradient Compression, Error Feedback Mechanism, Memory Footprint Reduction</t>
+  </si>
+  <si>
+    <t>Minimax Classification with 0-1 Loss and Performance Guarantees.pdf</t>
+  </si>
+  <si>
+    <t>MRC Classifier, Uncertainty Minimization, Linear Constraint Methods</t>
+  </si>
+  <si>
+    <t>Mixtures of Experts for Audio-Visual Learning.pdf</t>
+  </si>
+  <si>
+    <t>Social Network Analysis, Predictive User Engagement, Data Privacy in</t>
+  </si>
+  <si>
+    <t>Model-Based Offline Reinforcement Learning with Pessimism-Modulated Dynamics Belief.pdf</t>
+  </si>
+  <si>
+    <t>Dynamics Uncertainty Handling, Pessimism-Modulated Reward Penalty, Bias Sampling Optimization</t>
+  </si>
+  <si>
+    <t>Modelling Cellular Perturbations with the Sparse Additive Mechanism Shift Variational Autoencoder.pdf</t>
+  </si>
+  <si>
+    <t>Cellular Perturbation Modeling, Sparse Variational Autoencoder, Mechanism Shift Technique</t>
+  </si>
+  <si>
+    <t>Multi-Robot Collision Avoidance under Uncertainty with Probabilistic Safety Barrier Certificates.pdf</t>
+  </si>
+  <si>
+    <t>Collision Avoidance Method, Probabilistic Safety Barrier, Chance Constrained Control</t>
+  </si>
+  <si>
+    <t>Multimodal Few-Shot Learning with Frozen Language Models.pdf</t>
+  </si>
+  <si>
+    <t>Frozen Language Models, Few-Shot Learning, Multimodal Tasks</t>
+  </si>
+  <si>
+    <t>NAS-Bench-Graph_ Benchmarking Graph Neural Architecture Search.pdf</t>
+  </si>
+  <si>
+    <t>Reproducibly Comparable Benchmarking, Large Scale Efficiency, Consensus Experimental Setting.</t>
+  </si>
+  <si>
+    <t>Natural Actor-Critic for Robust Reinforcement Learning with Function Approximation.pdf</t>
+  </si>
+  <si>
+    <t>Robust Reinforcement Learning, Policy Formulation Uncertainty, Double Sampling Technique</t>
+  </si>
+  <si>
+    <t>Neural Methods for Point-wise Dependency Estimation.pdf</t>
+  </si>
+  <si>
+    <t>Point-wise Dependency Estimation, Mutual Information Variational, Point-wise Co-occurrence Likelihood</t>
+  </si>
+  <si>
+    <t>Non-local Latent Relation Distillation for Self-Adaptive 3D Human Pose Estimation.pdf</t>
+  </si>
+  <si>
+    <t>Pose estimation adaptation, Image-to-latent mapping, Latent-to-pose decoding</t>
+  </si>
+  <si>
+    <t>Occupancy-based Policy Gradient_ Estimation, Convergence, and Optimality.pdf</t>
+  </si>
+  <si>
+    <t>Occupancy Functions in, Model-Free Policy Gradients, Oracle Efficiency</t>
+  </si>
+  <si>
+    <t>Off-Policy Evaluation and Learning for External Validity under a Covariate Shift.pdf</t>
+  </si>
+  <si>
+    <t>Covariate Shift Analysis, Off-Policy Evaluation Techniques, Policy Learning Maximization</t>
+  </si>
+  <si>
+    <t>Offline Goal-Conditioned Reinforcement Learning via $f$-Advantage Regression.pdf</t>
+  </si>
+  <si>
+    <t>State Occupancy Matching, Uninterleaved Optimization, Hindsight Relabeling Avoided</t>
+  </si>
+  <si>
+    <t>Offline Multi-Agent Reinforcement Learning with Knowledge Distillation.pdf</t>
+  </si>
+  <si>
+    <t>Offline Multi-Agent MARL, Transformer Sequence Modeling, Knowledge Distillation Technique</t>
+  </si>
+  <si>
+    <t>On Kernelized Multi-Armed Bandits with Constraints.pdf</t>
+  </si>
+  <si>
+    <t>Soft Constraints Optimization, Primal-Dual Algorithm Design, Regret Complexity Trade-off</t>
+  </si>
+  <si>
+    <t>On Sample Optimality in Personalized Collaborative and Federated Learning.pdf</t>
+  </si>
+  <si>
+    <t>Stochastic Optimization in, Sample Lower Bounds, Gradient Filtering Strategies.</t>
+  </si>
+  <si>
+    <t>On the Value of Out-of-Distribution Testing_ An Example of Goodhart's Law.pdf</t>
+  </si>
+  <si>
+    <t>OOD testing bias, VQA-CP misuse, dataset construction flaws.</t>
+  </si>
+  <si>
+    <t>On-Demand Sampling_ Learning Optimally from Multiple Distributions.pdf</t>
+  </si>
+  <si>
+    <t>Multi-distributional Learning, Robustness Enhancement, Fair Sample Complexity</t>
+  </si>
+  <si>
+    <t>Oracle Complexity in Nonsmooth Nonconvex Optimization.pdf</t>
+  </si>
+  <si>
+    <t>Nonsmooth Optimization, Oracle Complexity, Gradient Methods</t>
+  </si>
+  <si>
+    <t>PaintSeg_ Painting Pixels for Training-free Segmentation.pdf</t>
+  </si>
+  <si>
+    <t>Unsupervised Segmentation via, Generative Inpainting Technique, Adversarial Training Strategy</t>
+  </si>
+  <si>
+    <t>Path following algorithms for $_ell_2$-regularized $M$-estimation with approximation guarantee.pdf</t>
+  </si>
+  <si>
+    <t>M-estimation paths, Tuning parameter selection, Approximation guarantees</t>
+  </si>
+  <si>
+    <t>PDF_ Point Diffusion Implicit Function for Large-scale Scene Neural Representation.pdf</t>
+  </si>
+  <si>
+    <t>Large Scenes Representation, Texture Synthesis Challenge, Expanding Sampling Space</t>
+  </si>
+  <si>
+    <t>Permute-and-Flip_ A new mechanism for differentially private selection.pdf</t>
+  </si>
+  <si>
+    <t>Differentially Private Selection, Exponential Mechanism Analysis, Linear Time Complexity</t>
+  </si>
+  <si>
+    <t>Physics-Informed Regularization for Domain-Agnostic Dynamical System Modeling.pdf</t>
+  </si>
+  <si>
+    <t>Time Reversal Symmetry, Energy Preservation Methodology, Hamiltonian Neural Network</t>
+  </si>
+  <si>
+    <t>PopSign ASL v1.0_ An Isolated American Sign Language Dataset Collected via Smartphones.pdf</t>
+  </si>
+  <si>
+    <t>Deaf Infant Sign, Mobile ASL Dataset, Hearing Parents Interaction</t>
+  </si>
+  <si>
+    <t>Predicting What You Already Know Helps_ Provable Self-Supervised Learning.pdf</t>
+  </si>
+  <si>
+    <t>Pretext Task Independence, Representation Learning Mechanism, Statistical Connections Quantification</t>
+  </si>
+  <si>
+    <t>Progressive Feature Interaction Search for Deep Sparse Network.pdf</t>
+  </si>
+  <si>
+    <t>DSN Architecture Search, High-order Feature Interactions, Progressive Distillation Algorithm</t>
+  </si>
+  <si>
+    <t>Prospective Representation Learning for Non-Exemplar Class-Incremental Learning.pdf</t>
+  </si>
+  <si>
+    <t>NECIL learning, Proactive representation adaptation, Embedding distribution control</t>
+  </si>
+  <si>
+    <t>Provable Adversarial Robustness for Group Equivariant Tasks_ Graphs, Point Clouds, Molecules, and More.pdf</t>
+  </si>
+  <si>
+    <t>Equivariant Perturbation Robustness, Semantic Preserving Adversaries, Graph and Molecule</t>
+  </si>
+  <si>
+    <t>PyGlove_ Symbolic Programming for Automated Machine Learning.pdf</t>
+  </si>
+  <si>
+    <t>NAS algorithms coupling, Implementation challenges, Complex search flow</t>
+  </si>
+  <si>
+    <t>Quantitative Propagation of Chaos for SGD in Wide Neural Networks.pdf</t>
+  </si>
+  <si>
+    <t>Invasive Species Impact, Ecological Economic Assessment, Conservation Policy Development</t>
+  </si>
+  <si>
+    <t>ReAct_ Out-of-distribution Detection With Rectified Activations.pdf</t>
+  </si>
+  <si>
+    <t>Activation Analysis Technique, Confidence Reduction Strategy, Generalization Ability</t>
+  </si>
+  <si>
+    <t>Reciprocal Adversarial Learning via Characteristic Functions.pdf</t>
+  </si>
+  <si>
+    <t>Generative adversarial networks, Integral Probability Metric, Characteristic Function (CF)</t>
+  </si>
+  <si>
+    <t>Recurrent Video Restoration Transformer with Guided Deformable Attention.pdf</t>
+  </si>
+  <si>
+    <t>Parallel Restoration with, Shared Parameters Issue, Long-Range Dependency Needs</t>
+  </si>
+  <si>
+    <t>Rethinking and Improving Robustness of Convolutional Neural Networks_ a Shapley Value-based Approach in Frequency Domain.pdf</t>
+  </si>
+  <si>
+    <t>Frequency Bias Phenomenon, Adversarial Robustness, Spectrum Analysis Methodology</t>
+  </si>
+  <si>
+    <t>Revisiting Model Stitching to Compare Neural Representations.pdf</t>
+  </si>
+  <si>
+    <t>Good Representation Learning, Model Stitching Technique, Quantitative Verification Framework</t>
+  </si>
+  <si>
+    <t>Robust Binary Models by Pruning Randomly-initialized Networks.pdf</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering Research, Drug Delivery Systems, Nanoparticle Synthesis Techniques</t>
+  </si>
+  <si>
+    <t>Robust Sparse Regression with Non-Isotropic Designs.pdf</t>
+  </si>
+  <si>
+    <t>Sparse Regression, Adversarial Design, Density Estimation.</t>
+  </si>
+  <si>
+    <t>SatMAE_ Pre-training Transformers for Temporal and Multi-Spectral Satellite Imagery.pdf</t>
+  </si>
+  <si>
+    <t>Temporal Satellite Imagery, Masked Autoencoder Adaptation, Spectral Data Encoding</t>
+  </si>
+  <si>
+    <t>Scalable Inference in SDEs by Direct Matching of the Fokker–Planck–Kolmogorov Equation.pdf</t>
+  </si>
+  <si>
+    <t>Environmental Policy Reform, Sustainable Fisheries Management, Political Advocacy Strategies</t>
+  </si>
+  <si>
+    <t>Scalable Membership Inference Attacks via Quantile Regression.pdf</t>
+  </si>
+  <si>
+    <t>Membership Inference Attack, Quantile Regression Technique, Computational Cost Analysis</t>
+  </si>
+  <si>
+    <t>Scaling &amp; Shifting Your Features_ A New Baseline for Efficient Model Tuning.pdf</t>
+  </si>
+  <si>
+    <t>Feature Scaling &amp;, Parameter Efficiency Fine-Tuning, Deep Feature Extraction</t>
+  </si>
+  <si>
+    <t>Second Thoughts are Best_ Learning to Re-Align With Human Values from Text Edits.pdf</t>
+  </si>
+  <si>
+    <t>Value Alignment, Reinforcement Learning, Interpretability</t>
+  </si>
+  <si>
+    <t>Self-Supervised Motion Magnification by Backpropagating Through Optical Flow.pdf</t>
+  </si>
+  <si>
+    <t>Optical Flow Magnification, Self-Supervised Learning, Motion Extraction</t>
+  </si>
+  <si>
+    <t>Self-Supervised MultiModal Versatile Networks.pdf</t>
+  </si>
+  <si>
+    <t>Versatile MultiModal Network, Self-Supervised Representation Learning, Mixed Modality Integration</t>
+  </si>
+  <si>
+    <t>Slot-VLM_ Object-Event Slots for Video-Language Modeling.pdf</t>
+  </si>
+  <si>
+    <t>Slot-VLM framework, Object-Event Slots module, Adaptive token aggregation</t>
+  </si>
+  <si>
+    <t>Smoothing the Landscape Boosts the Signal for SGD_ Optimal Sample Complexity for Learning Single Index Models.pdf</t>
+  </si>
+  <si>
+    <t>Risk Management in, Behavioral Economics Influences, Intertemporal Choice Models</t>
+  </si>
+  <si>
+    <t>SPO_ Sequential Monte Carlo Policy Optimisation.pdf</t>
+  </si>
+  <si>
+    <t>Sequential Monte Carlo, EM Framework, Model-Based Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Statistical Guarantees of Distributed Nearest Neighbor Classification.pdf</t>
+  </si>
+  <si>
+    <t>Distributed Learning Framework, Majority Voting Method, Convergence Rate Analysis</t>
+  </si>
+  <si>
+    <t>Stein Self-Repulsive Dynamics_ Benefits From Past Samples.pdf</t>
+  </si>
+  <si>
+    <t>Stein Variational Gradient, Sample Efficiency Improvement, Uncertainty Estimation Enhancement</t>
+  </si>
+  <si>
+    <t>Structured Recognition for Generative Models with Explaining Away.pdf</t>
+  </si>
+  <si>
+    <t>Causes of World, Economic Repercussrances post, Technological Advancements during</t>
+  </si>
+  <si>
+    <t>Synbols_ Probing Learning Algorithms with Synthetic Datasets.pdf</t>
+  </si>
+  <si>
+    <t>Synthesized Dataset Generation, Latent Feature Visualization, Learning Algorithm Testing</t>
+  </si>
+  <si>
+    <t>Task-aware Distributed Source Coding under Dynamic Bandwidth.pdf</t>
+  </si>
+  <si>
+    <t>Dynamic Bandwidth Task, Sensor Compression Efficiency, Performance Boundary Conditioning</t>
+  </si>
+  <si>
+    <t>TexQ_ Zero-shot Network Quantization with Texture Feature Distribution Calibration.pdf</t>
+  </si>
+  <si>
+    <t>Texture Feature Calibration, Zero-Shot Quantization Methodology, Detailed Texture Synthesis</t>
+  </si>
+  <si>
+    <t>The Complexity of Bayesian Network Learning_ Revisiting the Superstructure.pdf</t>
+  </si>
+  <si>
+    <t>Innovation in Nanocarbon, Organic Transistor Research, Graphene Properties Study</t>
+  </si>
+  <si>
+    <t>The Statistical Complexity of Early-Stopped Mirror Descent.pdf</t>
+  </si>
+  <si>
+    <t>Squared Loss, Early Stopping, Unregularized Risk (Note:</t>
+  </si>
+  <si>
+    <t>Theory and Approximate Solvers for Branched Optimal Transport with Multiple Sources.pdf</t>
+  </si>
+  <si>
+    <t>Branched Transportation Networks, Optimal Topology Design, Subadditive Cost Modeling</t>
+  </si>
+  <si>
+    <t>Time Discretization-Invariant Safe Action Repetition for Policy Gradient Methods.pdf</t>
+  </si>
+  <si>
+    <t>Policy Gradient Method, Time Discretization Invariance, Stochastic Performance Analysis</t>
+  </si>
+  <si>
+    <t>TimeXer_ Empowering Transformers for Time Series Forecasting with Exogenous Variables.pdf</t>
+  </si>
+  <si>
+    <t>Deep Learning Models, Forecast Accuracy Enhancement, Multivariate Analysis Integration</t>
+  </si>
+  <si>
+    <t>Towards Understanding How Transformers Learn In-context Through a Representation Learning Lens.pdf</t>
+  </si>
+  <si>
+    <t>Cultural Identity Preservation, Intergenerational Language Transfer, Bilingual Education Impact</t>
+  </si>
+  <si>
+    <t>Trading Personalization for Accuracy_ Data Debugging in Collaborative Filtering.pdf</t>
+  </si>
+  <si>
+    <t>Personalization, Data Debugging, Collaborative Filtering Models</t>
+  </si>
+  <si>
+    <t>Training-Free Adaptive Diffusion with Bounded Difference Approximation Strategy.pdf</t>
+  </si>
+  <si>
+    <t>Adaptive Diffusion, Latency Reduction, Noise Prediction Steps</t>
+  </si>
+  <si>
+    <t>Truncated Marginal Neural Ratio Estimation.pdf</t>
+  </si>
+  <si>
+    <t>Stochastic Simulation, Bayesian Inference, Neural Algorithm Efficiency</t>
+  </si>
+  <si>
+    <t>UniDoc_ Unified Pretraining Framework for Document Understanding.pdf</t>
+  </si>
+  <si>
+    <t>UniFIED Pretraining Framework, Document Understanding, Multimodal Input Extension</t>
+  </si>
+  <si>
+    <t>Unified Lexical Representation for Interpretable Visual-Language Alignment.pdf</t>
+  </si>
+  <si>
+    <t>Hunger Signals in, Neuroendocrine Mechanisms of, Maternal-Fed Infant Interaction</t>
+  </si>
+  <si>
+    <t>UQ-Guided Hyperparameter Optimization for Iterative Learners.pdf</t>
+  </si>
+  <si>
+    <t>Uncertainty Quantification, Iterative Machine Learning, Hyperparameter Optimization Scheme</t>
+  </si>
+  <si>
+    <t>Using natural language and program abstractions to instill human inductive biases in machines.pdf</t>
+  </si>
+  <si>
+    <t>Meta-learning, Representations Learning, Program Induction</t>
+  </si>
+  <si>
+    <t>VASA-1_ Lifelike Audio-Driven Talking Faces Generated in Real Time.pdf</t>
+  </si>
+  <si>
+    <t>Aquifer Depletion Research, Groundwater Sustainability Study, Climate Change Impact</t>
+  </si>
+  <si>
+    <t>VoiceMixer_ Adversarial Voice Style Mixup.pdf</t>
+  </si>
+  <si>
+    <t>Voice Style Decomposition, Information Bottleneck Learning, Adversarial Feedback Processing</t>
+  </si>
+  <si>
+    <t>Wavelet Score-Based Generative Modeling.pdf</t>
+  </si>
+  <si>
+    <t>Air Pollution Health, Acid Rain Impact, Urban Heat Island</t>
+  </si>
+  <si>
+    <t>What You See is What You Classify_ Black Box Attributions.pdf</t>
+  </si>
+  <si>
+    <t>Image Regions Identification, Network Interpretation Model, Explainer Concept Learning.</t>
+  </si>
+  <si>
+    <t>Where are we in the search for an Artificial Visual Cortex for Embodied Intelligence_.pdf</t>
+  </si>
+  <si>
+    <t>Document Classification System, Machine Learning Techniques, Performance Metrics Evaluation</t>
+  </si>
+  <si>
+    <t>Zero-Shot Video Question Answering via Frozen Bidirectional Language Models.pdf</t>
+  </si>
+  <si>
+    <t>Zero Shot Learning, Multi-modal Fusion, Language Model Adaptation</t>
   </si>
 </sst>
 </file>
@@ -424,16 +1462,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.44140625" customWidth="1"/>
-    <col min="2" max="2" width="113.44140625" customWidth="1"/>
+    <col min="1" max="1" width="100.44140625" customWidth="1"/>
+    <col min="2" max="2" width="98.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -465,31 +1501,1415 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
